--- a/biology/Médecine/Phaeohyphomycose/Phaeohyphomycose.xlsx
+++ b/biology/Médecine/Phaeohyphomycose/Phaeohyphomycose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une Phaeohyphomycose ou phaéohyphomycose  est une mycose chronique causée par diverses levures et moisissures opportunistes, de couleur noire ou sombre (aussi dénommées « champignons noirs » ou phaéohyphomycètes), provenant généralement du sol. La mélanine présente dans leurs parois cellulaires empêche ou freine leur phagocytose par les globules blanc, ce qui renforce leur pathogénicité[1]. 
-Ces affections cosmopolites sont considérées comme Maladie émergente ; Au tout début du XXIe siècle, 70 genres et 130 espèces étaient connus pour produire ou aggraver des lésions humaines (et (ou) animales)[1]. 
-L'infection se limite généralement à la peau, mais se propage parfois dans les tissus internes, parfois même jusqu'au cerveau[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une Phaeohyphomycose ou phaéohyphomycose  est une mycose chronique causée par diverses levures et moisissures opportunistes, de couleur noire ou sombre (aussi dénommées « champignons noirs » ou phaéohyphomycètes), provenant généralement du sol. La mélanine présente dans leurs parois cellulaires empêche ou freine leur phagocytose par les globules blanc, ce qui renforce leur pathogénicité. 
+Ces affections cosmopolites sont considérées comme Maladie émergente ; Au tout début du XXIe siècle, 70 genres et 130 espèces étaient connus pour produire ou aggraver des lésions humaines (et (ou) animales). 
+L'infection se limite généralement à la peau, mais se propage parfois dans les tissus internes, parfois même jusqu'au cerveau.
 Touchant principalement les animaux, elle est également constatée sur des personnes immunodéficientes.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Principaux phaéohyphomycètes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">la plupart des moisissures responsables sont des dématiés des genres suivant [1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">la plupart des moisissures responsables sont des dématiés des genres suivant :
 Alternaria
 Anthopsis
 Aureobasidium
@@ -539,7 +553,7 @@
 Ulocladium'
 Veronaea
 Xylohypha
-D'autres espèces de champignons noirs, pour la plupart assimilées aux Ascomycètes et pour certains très pathogènes, plus récemment découvertes ou introduites provoquent aussi des phaéohyphomycoses humaines[1] :
+D'autres espèces de champignons noirs, pour la plupart assimilées aux Ascomycètes et pour certains très pathogènes, plus récemment découvertes ou introduites provoquent aussi des phaéohyphomycoses humaines :
 Amium
 Arthrinum
 Botryomyces
@@ -574,7 +588,7 @@
 Tetraploa
 Thermomyces
 Trichomaris
-Les plus dangereux, sont des champignons parasites de la famille des Herpotrichiellaceae (de l'ordre des Dothidéales)[1]. 
+Les plus dangereux, sont des champignons parasites de la famille des Herpotrichiellaceae (de l'ordre des Dothidéales). 
 </t>
         </is>
       </c>
@@ -603,11 +617,13 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Par rapport à d'autres mycoses y compris « cellules fumagoïdes » ou cellules sclérotiales qui causent des chromomycoses parfois dues aux mêmes dématies (Phialophora verrucosa) :  
-les phaéohyphomycoses présentent une morphologie plutôt homogène du champignon au sein des tissus lésés[1].
-les phaéohyphomycètes sont filamenteux (filaments septés) et/ou ont l'apparence de pseudo-levures arrondie aux pigmentées sombres[1].</t>
+les phaéohyphomycoses présentent une morphologie plutôt homogène du champignon au sein des tissus lésés.
+les phaéohyphomycètes sont filamenteux (filaments septés) et/ou ont l'apparence de pseudo-levures arrondie aux pigmentées sombres.</t>
         </is>
       </c>
     </row>
@@ -635,9 +651,11 @@
           <t>Formes cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>on en distingue 6 présentées ci-dessous selon leur gravité[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>on en distingue 6 présentées ci-dessous selon leur gravité:
 superficielles (Tinea nigra et Piedra noire ) ; pronostic bénin, guérison habituellement rapide
 peau &amp; phanères ; pronostic bénin, guérison habituellement rapide à la suite d'un traitement médicamenteux associé à une intervention chirurgicale (exérèse de la lésion) quand cela est possible.
 sous-cutanées ; pronostic plus sombre
@@ -671,9 +689,11 @@
           <t>Soins, traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sont parfois efficaces[1] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont parfois efficaces : 
 L'amphotéricine B (dont en formulation lipidique
 L'itraconazole so
 Les formes profondes ou disséminées ne guérissent que quand la maladie sous-jacente est maîtrisée.
